--- a/data/Algarrobo.xlsx
+++ b/data/Algarrobo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Subestación Doble Barra Tap Algarrobo</t>
+          <t>Nueva Subestación Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Chilquinta Energía S.A</t>
+          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6900</v>
+        <v>5540</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142547893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156705954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Subestación Doble Barra Tap Algarrobo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,30 +482,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Chilquinta Energía S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>6900</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142547893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>350</v>
+        <v>2000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,36 +856,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Estación de transferencia de residuos solidos San Antonio</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Extraccion de residuos Eco-Garbage Ltda</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18/02/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -900,30 +904,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estación de transferencia de residuos solidos San Antonio</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Extraccion de residuos Eco-Garbage Ltda</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>234</v>
+        <v>2000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>18/02/2008</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -963,15 +963,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1011,15 +1011,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1059,25 +1059,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1115,17 +1115,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1155,25 +1155,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1198,30 +1198,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1246,30 +1246,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1299,25 +1299,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1355,17 +1355,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1390,30 +1390,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1438,30 +1438,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 66 kV y Subestacíón El Totoral (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1486,20 +1486,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Marcelo Hernán Luengo Amar</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>688</v>
+        <v>160</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>07/11/2003</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=195041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Balneario Costa Algarrobo (e-seia)</t>
+          <t>Línea de Transmisión de 66 kV y Subestacíón El Totoral (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1539,25 +1539,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Inversiones Inmobiliarias S.A.</t>
+          <t>Marcelo Hernán Luengo Amar</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>19000</v>
+        <v>688</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>30/10/2003</t>
+          <t>07/11/2003</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=181961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=195041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Encauzamiento del Tramo Final del Estero El Yugo, Algarrobo (e-seia)</t>
+          <t>Balneario Costa Algarrobo (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1587,25 +1587,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inmobiliaria Ampuria Brava Limitada</t>
+          <t>Inversiones Inmobiliarias S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1209</v>
+        <v>19000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>03/09/2003</t>
+          <t>30/10/2003</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=138744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=181961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1639,21 +1639,21 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1241</v>
+        <v>1209</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>14/07/2003</t>
+          <t>03/09/2003</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=138744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Encauzamiento del Tramo Final del Estero El Yugo, Algarrobo (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1678,30 +1678,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Inmobiliaria Ampuria Brava Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1241</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>14/07/2003</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1731,15 +1731,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1774,20 +1774,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>30/08/2001</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cabañas de Vacaciones</t>
+          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1827,25 +1827,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Lucy Collet Oscar</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>27/11/2000</t>
+          <t>30/08/2001</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Condominio El Yeco</t>
+          <t>Cabañas de Vacaciones</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1875,25 +1875,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Bárbara</t>
+          <t>Lucy Collet Oscar</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>19230</v>
+        <v>460</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>13/09/2000</t>
+          <t>27/11/2000</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Casa de Retiro de la Congregación del Santísimo Redentor</t>
+          <t>Condominio El Yeco</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1923,11 +1923,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Congregación del Santísimo Redentor</t>
+          <t>Inmobiliaria Santa Bárbara</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>410</v>
+        <v>19230</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas Condominio Altos De Mirasol</t>
+          <t>Casa de Retiro de la Congregación del Santísimo Redentor</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1971,25 +1971,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria San Francisco Ltda.</t>
+          <t>Congregación del Santísimo Redentor</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>17/07/2000</t>
+          <t>13/09/2000</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Algarrobo Casablanca</t>
+          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas Condominio Altos De Mirasol</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2019,25 +2019,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Chilquinta Energía S.A.</t>
+          <t>Sociedad Inmobiliaria San Francisco Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>890</v>
+        <v>130</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>06/05/1998</t>
+          <t>17/07/2000</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Desarrollo Turístico El Eucaliptus</t>
+          <t>Línea de Transmisión Algarrobo Casablanca</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2067,25 +2067,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Inmobiliaria Don Mateo S.A.</t>
+          <t>Chilquinta Energía S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4000</v>
+        <v>890</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>06/01/1998</t>
+          <t>06/05/1998</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2100,43 +2100,91 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>Desarrollo Turístico El Eucaliptus</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Don Mateo S.A.</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>06/01/1998</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Abandonado</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Algarrobo</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>Central Hidroeléctrica Loma Alta</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Séptima</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Pehuenche S.A.</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="F38" t="n">
         <v>60000</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>18/05/1995</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>Algarrobo</t>
         </is>

--- a/data/Algarrobo.xlsx
+++ b/data/Algarrobo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Algarrobo.xlsx
+++ b/data/Algarrobo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nueva Subestación Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
+          <t>construcción kiosko desarmable de venta de confites</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
+          <t>María Susana Jiménez Barranco</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5540</v>
+        <v>5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/08/2022</t>
+          <t>30/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156705954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156861425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Subestación Doble Barra Tap Algarrobo</t>
+          <t>Nueva Subestación Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Chilquinta Energía S.A</t>
+          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6900</v>
+        <v>5540</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142547893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156705954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Subestación Doble Barra Tap Algarrobo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Chilquinta Energía S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>6900</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142547893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>350</v>
+        <v>2000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,36 +904,40 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Estación de transferencia de residuos solidos San Antonio</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Extraccion de residuos Eco-Garbage Ltda</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18/02/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -948,30 +952,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estación de transferencia de residuos solidos San Antonio</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Extraccion de residuos Eco-Garbage Ltda</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>234</v>
+        <v>2000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>18/02/2008</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1011,15 +1011,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1059,15 +1059,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1107,25 +1107,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1163,17 +1163,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1203,25 +1203,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1246,30 +1246,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1294,30 +1294,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1347,25 +1347,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1403,17 +1403,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1438,30 +1438,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1486,30 +1486,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 66 kV y Subestacíón El Totoral (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1534,20 +1534,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Marcelo Hernán Luengo Amar</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>688</v>
+        <v>160</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>07/11/2003</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=195041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Balneario Costa Algarrobo (e-seia)</t>
+          <t>Línea de Transmisión de 66 kV y Subestacíón El Totoral (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1587,25 +1587,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inversiones Inmobiliarias S.A.</t>
+          <t>Marcelo Hernán Luengo Amar</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>19000</v>
+        <v>688</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>30/10/2003</t>
+          <t>07/11/2003</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=181961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=195041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Encauzamiento del Tramo Final del Estero El Yugo, Algarrobo (e-seia)</t>
+          <t>Balneario Costa Algarrobo (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1635,25 +1635,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Inmobiliaria Ampuria Brava Limitada</t>
+          <t>Inversiones Inmobiliarias S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1209</v>
+        <v>19000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>03/09/2003</t>
+          <t>30/10/2003</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=138744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=181961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1687,21 +1687,21 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1241</v>
+        <v>1209</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>14/07/2003</t>
+          <t>03/09/2003</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=138744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Encauzamiento del Tramo Final del Estero El Yugo, Algarrobo (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1726,30 +1726,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Inmobiliaria Ampuria Brava Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1241</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>14/07/2003</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1779,15 +1779,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1822,20 +1822,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30/08/2001</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cabañas de Vacaciones</t>
+          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1875,25 +1875,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Lucy Collet Oscar</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>27/11/2000</t>
+          <t>30/08/2001</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Condominio El Yeco</t>
+          <t>Cabañas de Vacaciones</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1923,25 +1923,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Bárbara</t>
+          <t>Lucy Collet Oscar</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>19230</v>
+        <v>460</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13/09/2000</t>
+          <t>27/11/2000</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Casa de Retiro de la Congregación del Santísimo Redentor</t>
+          <t>Condominio El Yeco</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1971,11 +1971,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Congregación del Santísimo Redentor</t>
+          <t>Inmobiliaria Santa Bárbara</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>410</v>
+        <v>19230</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas Condominio Altos De Mirasol</t>
+          <t>Casa de Retiro de la Congregación del Santísimo Redentor</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2019,25 +2019,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria San Francisco Ltda.</t>
+          <t>Congregación del Santísimo Redentor</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>17/07/2000</t>
+          <t>13/09/2000</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Algarrobo Casablanca</t>
+          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas Condominio Altos De Mirasol</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2067,25 +2067,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Chilquinta Energía S.A.</t>
+          <t>Sociedad Inmobiliaria San Francisco Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>890</v>
+        <v>130</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>06/05/1998</t>
+          <t>17/07/2000</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Desarrollo Turístico El Eucaliptus</t>
+          <t>Línea de Transmisión Algarrobo Casablanca</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2115,25 +2115,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Inmobiliaria Don Mateo S.A.</t>
+          <t>Chilquinta Energía S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4000</v>
+        <v>890</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/01/1998</t>
+          <t>06/05/1998</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2148,43 +2148,91 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>Desarrollo Turístico El Eucaliptus</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Don Mateo S.A.</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>06/01/1998</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Abandonado</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Algarrobo</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>Central Hidroeléctrica Loma Alta</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Séptima</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Pehuenche S.A.</t>
         </is>
       </c>
-      <c r="F38" t="n">
+      <c r="F39" t="n">
         <v>60000</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>18/05/1995</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>Algarrobo</t>
         </is>

--- a/data/Algarrobo.xlsx
+++ b/data/Algarrobo.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Algarrobo.xlsx
+++ b/data/Algarrobo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>construcción kiosko desarmable de venta de confites</t>
+          <t>Nueva S/E Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>María Susana Jiménez Barranco</t>
+          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>5540</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/08/2022</t>
+          <t>15/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156861425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157129130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nueva Subestación Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
+          <t>construcción kiosko desarmable de venta de confites</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
+          <t>María Susana Jiménez Barranco</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5540</v>
+        <v>5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/08/2022</t>
+          <t>30/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156705954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156861425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Subestación Doble Barra Tap Algarrobo</t>
+          <t>Nueva Subestación Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Chilquinta Energía S.A</t>
+          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6900</v>
+        <v>5540</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142547893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156705954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Subestación Doble Barra Tap Algarrobo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Chilquinta Energía S.A</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>6900</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142547893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>350</v>
+        <v>2000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,36 +952,40 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Estación de transferencia de residuos solidos San Antonio</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Extraccion de residuos Eco-Garbage Ltda</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18/02/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -996,30 +1000,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estación de transferencia de residuos solidos San Antonio</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Extraccion de residuos Eco-Garbage Ltda</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>234</v>
+        <v>2000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>18/02/2008</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1059,15 +1059,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1107,15 +1107,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1155,25 +1155,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1211,17 +1211,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1251,25 +1251,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1294,30 +1294,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1342,30 +1342,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1395,25 +1395,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1451,17 +1451,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1486,30 +1486,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1534,30 +1534,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 66 kV y Subestacíón El Totoral (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1582,20 +1582,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Marcelo Hernán Luengo Amar</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>688</v>
+        <v>160</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>07/11/2003</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=195041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Balneario Costa Algarrobo (e-seia)</t>
+          <t>Línea de Transmisión de 66 kV y Subestacíón El Totoral (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1635,25 +1635,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Inversiones Inmobiliarias S.A.</t>
+          <t>Marcelo Hernán Luengo Amar</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>19000</v>
+        <v>688</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>30/10/2003</t>
+          <t>07/11/2003</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=181961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=195041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Encauzamiento del Tramo Final del Estero El Yugo, Algarrobo (e-seia)</t>
+          <t>Balneario Costa Algarrobo (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1683,25 +1683,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Inmobiliaria Ampuria Brava Limitada</t>
+          <t>Inversiones Inmobiliarias S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1209</v>
+        <v>19000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>03/09/2003</t>
+          <t>30/10/2003</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=138744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=181961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1735,21 +1735,21 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1241</v>
+        <v>1209</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>14/07/2003</t>
+          <t>03/09/2003</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=138744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Encauzamiento del Tramo Final del Estero El Yugo, Algarrobo (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1774,30 +1774,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Inmobiliaria Ampuria Brava Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1241</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>14/07/2003</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1827,15 +1827,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1870,20 +1870,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30/08/2001</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cabañas de Vacaciones</t>
+          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1923,25 +1923,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lucy Collet Oscar</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>27/11/2000</t>
+          <t>30/08/2001</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Condominio El Yeco</t>
+          <t>Cabañas de Vacaciones</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1971,25 +1971,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Bárbara</t>
+          <t>Lucy Collet Oscar</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>19230</v>
+        <v>460</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13/09/2000</t>
+          <t>27/11/2000</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Casa de Retiro de la Congregación del Santísimo Redentor</t>
+          <t>Condominio El Yeco</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2019,11 +2019,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Congregación del Santísimo Redentor</t>
+          <t>Inmobiliaria Santa Bárbara</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>410</v>
+        <v>19230</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas Condominio Altos De Mirasol</t>
+          <t>Casa de Retiro de la Congregación del Santísimo Redentor</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2067,25 +2067,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria San Francisco Ltda.</t>
+          <t>Congregación del Santísimo Redentor</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>17/07/2000</t>
+          <t>13/09/2000</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Algarrobo Casablanca</t>
+          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas Condominio Altos De Mirasol</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2115,25 +2115,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Chilquinta Energía S.A.</t>
+          <t>Sociedad Inmobiliaria San Francisco Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>890</v>
+        <v>130</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/05/1998</t>
+          <t>17/07/2000</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Desarrollo Turístico El Eucaliptus</t>
+          <t>Línea de Transmisión Algarrobo Casablanca</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2163,25 +2163,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Inmobiliaria Don Mateo S.A.</t>
+          <t>Chilquinta Energía S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4000</v>
+        <v>890</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06/01/1998</t>
+          <t>06/05/1998</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2196,43 +2196,91 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>Desarrollo Turístico El Eucaliptus</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Don Mateo S.A.</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>06/01/1998</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Abandonado</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Algarrobo</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>Central Hidroeléctrica Loma Alta</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Séptima</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Pehuenche S.A.</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="F40" t="n">
         <v>60000</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>18/05/1995</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>Algarrobo</t>
         </is>

--- a/data/Algarrobo.xlsx
+++ b/data/Algarrobo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Algarrobo.xlsx
+++ b/data/Algarrobo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
+          <t>Planta Fotovoltaica Alghero Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
+          <t>Alghero Solar SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5540</v>
+        <v>33000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/09/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157129130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157314767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>construcción kiosko desarmable de venta de confites</t>
+          <t>Nueva S/E Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>María Susana Jiménez Barranco</t>
+          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>5540</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30/08/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156861425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157129130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nueva Subestación Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
+          <t>construcción kiosko desarmable de venta de confites</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
+          <t>María Susana Jiménez Barranco</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5540</v>
+        <v>5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/08/2022</t>
+          <t>30/08/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156705954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156861425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Subestación Doble Barra Tap Algarrobo</t>
+          <t>Nueva Subestación Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Chilquinta Energía S.A</t>
+          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6900</v>
+        <v>5540</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142547893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156705954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Subestación Doble Barra Tap Algarrobo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Chilquinta Energía S.A</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>6900</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142547893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>350</v>
+        <v>2000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,36 +1000,40 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Estación de transferencia de residuos solidos San Antonio</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Extraccion de residuos Eco-Garbage Ltda</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18/02/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1044,30 +1048,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estación de transferencia de residuos solidos San Antonio</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Extraccion de residuos Eco-Garbage Ltda</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>234</v>
+        <v>2000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>18/02/2008</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1107,15 +1107,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1155,15 +1155,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1203,25 +1203,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1259,17 +1259,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1299,25 +1299,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1342,30 +1342,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1390,30 +1390,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1443,25 +1443,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1499,17 +1499,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1534,30 +1534,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1582,30 +1582,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 66 kV y Subestacíón El Totoral (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1630,20 +1630,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Marcelo Hernán Luengo Amar</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>688</v>
+        <v>160</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>07/11/2003</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=195041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Balneario Costa Algarrobo (e-seia)</t>
+          <t>Línea de Transmisión de 66 kV y Subestacíón El Totoral (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1683,25 +1683,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Inversiones Inmobiliarias S.A.</t>
+          <t>Marcelo Hernán Luengo Amar</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>19000</v>
+        <v>688</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>30/10/2003</t>
+          <t>07/11/2003</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=181961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=195041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Encauzamiento del Tramo Final del Estero El Yugo, Algarrobo (e-seia)</t>
+          <t>Balneario Costa Algarrobo (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1731,25 +1731,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Inmobiliaria Ampuria Brava Limitada</t>
+          <t>Inversiones Inmobiliarias S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1209</v>
+        <v>19000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>03/09/2003</t>
+          <t>30/10/2003</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=138744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=181961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1783,21 +1783,21 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1241</v>
+        <v>1209</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>14/07/2003</t>
+          <t>03/09/2003</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=138744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Encauzamiento del Tramo Final del Estero El Yugo, Algarrobo (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1822,30 +1822,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Inmobiliaria Ampuria Brava Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1241</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>14/07/2003</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1875,15 +1875,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1918,20 +1918,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>30/08/2001</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cabañas de Vacaciones</t>
+          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1971,25 +1971,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Lucy Collet Oscar</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>27/11/2000</t>
+          <t>30/08/2001</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Condominio El Yeco</t>
+          <t>Cabañas de Vacaciones</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2019,25 +2019,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Bárbara</t>
+          <t>Lucy Collet Oscar</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>19230</v>
+        <v>460</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>13/09/2000</t>
+          <t>27/11/2000</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Casa de Retiro de la Congregación del Santísimo Redentor</t>
+          <t>Condominio El Yeco</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2067,11 +2067,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Congregación del Santísimo Redentor</t>
+          <t>Inmobiliaria Santa Bárbara</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>410</v>
+        <v>19230</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas Condominio Altos De Mirasol</t>
+          <t>Casa de Retiro de la Congregación del Santísimo Redentor</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2115,25 +2115,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria San Francisco Ltda.</t>
+          <t>Congregación del Santísimo Redentor</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>17/07/2000</t>
+          <t>13/09/2000</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Algarrobo Casablanca</t>
+          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas Condominio Altos De Mirasol</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2163,25 +2163,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Chilquinta Energía S.A.</t>
+          <t>Sociedad Inmobiliaria San Francisco Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>890</v>
+        <v>130</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06/05/1998</t>
+          <t>17/07/2000</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Desarrollo Turístico El Eucaliptus</t>
+          <t>Línea de Transmisión Algarrobo Casablanca</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2211,25 +2211,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Inmobiliaria Don Mateo S.A.</t>
+          <t>Chilquinta Energía S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4000</v>
+        <v>890</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>06/01/1998</t>
+          <t>06/05/1998</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2244,43 +2244,91 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>Desarrollo Turístico El Eucaliptus</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Don Mateo S.A.</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>06/01/1998</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Abandonado</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Algarrobo</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>Central Hidroeléctrica Loma Alta</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Séptima</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Pehuenche S.A.</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="F41" t="n">
         <v>60000</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>18/05/1995</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>Algarrobo</t>
         </is>

--- a/data/Algarrobo.xlsx
+++ b/data/Algarrobo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>25/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Algarrobo.xlsx
+++ b/data/Algarrobo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alghero Solar</t>
+          <t>Proyecto Inmobiliario de Loteo La Ventana en Tunquén</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Alghero Solar SpA</t>
+          <t>Benjamín Andrés Pupkin Rutman</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>33000</v>
+        <v>500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/10/2022</t>
+          <t>09/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157314767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157626328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
+          <t>Planta Fotovoltaica Alghero Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
+          <t>Alghero Solar SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5540</v>
+        <v>33000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/09/2022</t>
+          <t>25/10/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157129130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157314767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>construcción kiosko desarmable de venta de confites</t>
+          <t>Nueva S/E Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>María Susana Jiménez Barranco</t>
+          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>5540</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30/08/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156861425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157129130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nueva Subestación Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
+          <t>construcción kiosko desarmable de venta de confites</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
+          <t>María Susana Jiménez Barranco</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5540</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/08/2022</t>
+          <t>30/08/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156705954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156861425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Subestación Doble Barra Tap Algarrobo</t>
+          <t>Nueva Subestación Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Chilquinta Energía S.A</t>
+          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6900</v>
+        <v>5540</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142547893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156705954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Subestación Doble Barra Tap Algarrobo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Chilquinta Energía S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>6900</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142547893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>350</v>
+        <v>2000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,36 +1048,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Estación de transferencia de residuos solidos San Antonio</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Extraccion de residuos Eco-Garbage Ltda</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18/02/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1092,30 +1096,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estación de transferencia de residuos solidos San Antonio</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Extraccion de residuos Eco-Garbage Ltda</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>234</v>
+        <v>2000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>18/02/2008</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1155,15 +1155,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1203,15 +1203,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1251,25 +1251,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1307,17 +1307,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1347,25 +1347,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1390,30 +1390,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1438,30 +1438,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1491,25 +1491,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1547,17 +1547,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1582,30 +1582,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1630,30 +1630,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 66 kV y Subestacíón El Totoral (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1678,20 +1678,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Marcelo Hernán Luengo Amar</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>688</v>
+        <v>160</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>07/11/2003</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=195041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Balneario Costa Algarrobo (e-seia)</t>
+          <t>Línea de Transmisión de 66 kV y Subestacíón El Totoral (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1731,25 +1731,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Inversiones Inmobiliarias S.A.</t>
+          <t>Marcelo Hernán Luengo Amar</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>19000</v>
+        <v>688</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>30/10/2003</t>
+          <t>07/11/2003</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=181961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=195041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Encauzamiento del Tramo Final del Estero El Yugo, Algarrobo (e-seia)</t>
+          <t>Balneario Costa Algarrobo (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1779,25 +1779,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Inmobiliaria Ampuria Brava Limitada</t>
+          <t>Inversiones Inmobiliarias S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1209</v>
+        <v>19000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>03/09/2003</t>
+          <t>30/10/2003</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=138744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=181961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1831,21 +1831,21 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1241</v>
+        <v>1209</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>14/07/2003</t>
+          <t>03/09/2003</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=138744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Encauzamiento del Tramo Final del Estero El Yugo, Algarrobo (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1870,30 +1870,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Inmobiliaria Ampuria Brava Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1241</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>14/07/2003</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1923,15 +1923,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1966,20 +1966,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>30/08/2001</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cabañas de Vacaciones</t>
+          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2019,25 +2019,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Lucy Collet Oscar</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>27/11/2000</t>
+          <t>30/08/2001</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Condominio El Yeco</t>
+          <t>Cabañas de Vacaciones</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2067,25 +2067,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Bárbara</t>
+          <t>Lucy Collet Oscar</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>19230</v>
+        <v>460</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>13/09/2000</t>
+          <t>27/11/2000</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Casa de Retiro de la Congregación del Santísimo Redentor</t>
+          <t>Condominio El Yeco</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2115,11 +2115,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Congregación del Santísimo Redentor</t>
+          <t>Inmobiliaria Santa Bárbara</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>410</v>
+        <v>19230</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas Condominio Altos De Mirasol</t>
+          <t>Casa de Retiro de la Congregación del Santísimo Redentor</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2163,25 +2163,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria San Francisco Ltda.</t>
+          <t>Congregación del Santísimo Redentor</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17/07/2000</t>
+          <t>13/09/2000</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Algarrobo Casablanca</t>
+          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas Condominio Altos De Mirasol</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2211,25 +2211,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Chilquinta Energía S.A.</t>
+          <t>Sociedad Inmobiliaria San Francisco Ltda.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>890</v>
+        <v>130</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>06/05/1998</t>
+          <t>17/07/2000</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Desarrollo Turístico El Eucaliptus</t>
+          <t>Línea de Transmisión Algarrobo Casablanca</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2259,25 +2259,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Inmobiliaria Don Mateo S.A.</t>
+          <t>Chilquinta Energía S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4000</v>
+        <v>890</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>06/01/1998</t>
+          <t>06/05/1998</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2292,43 +2292,91 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>Desarrollo Turístico El Eucaliptus</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Don Mateo S.A.</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>06/01/1998</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Abandonado</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Algarrobo</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>Central Hidroeléctrica Loma Alta</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Séptima</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Pehuenche S.A.</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="F42" t="n">
         <v>60000</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>18/05/1995</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>Algarrobo</t>
         </is>

--- a/data/Algarrobo.xlsx
+++ b/data/Algarrobo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Benjamín Andrés Pupkin Rutman</t>
+          <t>INMOBILIARIA E INVERSIONES LAS OLAS SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/11/2022</t>
+          <t>14/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157626328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157641322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alghero Solar</t>
+          <t>Proyecto Inmobiliario de Loteo La Ventana en Tunquén</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Alghero Solar SpA</t>
+          <t>Benjamín Andrés Pupkin Rutman</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>33000</v>
+        <v>500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25/10/2022</t>
+          <t>09/11/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157314767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157626328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
+          <t>Planta Fotovoltaica Alghero Solar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
+          <t>Alghero Solar SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5540</v>
+        <v>33000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/09/2022</t>
+          <t>25/10/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157129130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157314767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>construcción kiosko desarmable de venta de confites</t>
+          <t>Nueva S/E Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>María Susana Jiménez Barranco</t>
+          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>5540</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>30/08/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156861425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157129130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nueva Subestación Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
+          <t>construcción kiosko desarmable de venta de confites</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
+          <t>María Susana Jiménez Barranco</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5540</v>
+        <v>5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24/08/2022</t>
+          <t>30/08/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156705954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156861425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Subestación Doble Barra Tap Algarrobo</t>
+          <t>Nueva Subestación Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Chilquinta Energía S.A</t>
+          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6900</v>
+        <v>5540</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142547893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156705954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Subestación Doble Barra Tap Algarrobo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Chilquinta Energía S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>6900</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142547893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>350</v>
+        <v>2000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,36 +1096,40 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Estación de transferencia de residuos solidos San Antonio</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Extraccion de residuos Eco-Garbage Ltda</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18/02/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1140,30 +1144,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estación de transferencia de residuos solidos San Antonio</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Extraccion de residuos Eco-Garbage Ltda</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>234</v>
+        <v>2000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>18/02/2008</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1203,15 +1203,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1251,15 +1251,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1299,25 +1299,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1355,17 +1355,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1395,25 +1395,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1438,30 +1438,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1486,30 +1486,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1539,25 +1539,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1595,17 +1595,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1630,30 +1630,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1678,30 +1678,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 66 kV y Subestacíón El Totoral (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1726,20 +1726,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Marcelo Hernán Luengo Amar</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>688</v>
+        <v>160</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>07/11/2003</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=195041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Balneario Costa Algarrobo (e-seia)</t>
+          <t>Línea de Transmisión de 66 kV y Subestacíón El Totoral (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1779,25 +1779,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Inversiones Inmobiliarias S.A.</t>
+          <t>Marcelo Hernán Luengo Amar</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>19000</v>
+        <v>688</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>30/10/2003</t>
+          <t>07/11/2003</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=181961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=195041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Encauzamiento del Tramo Final del Estero El Yugo, Algarrobo (e-seia)</t>
+          <t>Balneario Costa Algarrobo (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1827,25 +1827,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Inmobiliaria Ampuria Brava Limitada</t>
+          <t>Inversiones Inmobiliarias S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1209</v>
+        <v>19000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>03/09/2003</t>
+          <t>30/10/2003</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=138744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=181961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1879,21 +1879,21 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1241</v>
+        <v>1209</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>14/07/2003</t>
+          <t>03/09/2003</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=138744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Encauzamiento del Tramo Final del Estero El Yugo, Algarrobo (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1918,30 +1918,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Inmobiliaria Ampuria Brava Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1241</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>14/07/2003</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1971,15 +1971,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2014,20 +2014,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>30/08/2001</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cabañas de Vacaciones</t>
+          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2067,25 +2067,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Lucy Collet Oscar</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>27/11/2000</t>
+          <t>30/08/2001</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Condominio El Yeco</t>
+          <t>Cabañas de Vacaciones</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2115,25 +2115,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Bárbara</t>
+          <t>Lucy Collet Oscar</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>19230</v>
+        <v>460</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>13/09/2000</t>
+          <t>27/11/2000</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Casa de Retiro de la Congregación del Santísimo Redentor</t>
+          <t>Condominio El Yeco</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2163,11 +2163,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Congregación del Santísimo Redentor</t>
+          <t>Inmobiliaria Santa Bárbara</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>410</v>
+        <v>19230</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas Condominio Altos De Mirasol</t>
+          <t>Casa de Retiro de la Congregación del Santísimo Redentor</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2211,25 +2211,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria San Francisco Ltda.</t>
+          <t>Congregación del Santísimo Redentor</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>17/07/2000</t>
+          <t>13/09/2000</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Algarrobo Casablanca</t>
+          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas Condominio Altos De Mirasol</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2259,25 +2259,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Chilquinta Energía S.A.</t>
+          <t>Sociedad Inmobiliaria San Francisco Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>890</v>
+        <v>130</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>06/05/1998</t>
+          <t>17/07/2000</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Desarrollo Turístico El Eucaliptus</t>
+          <t>Línea de Transmisión Algarrobo Casablanca</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2307,25 +2307,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Inmobiliaria Don Mateo S.A.</t>
+          <t>Chilquinta Energía S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4000</v>
+        <v>890</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/01/1998</t>
+          <t>06/05/1998</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2340,43 +2340,91 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>Desarrollo Turístico El Eucaliptus</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Don Mateo S.A.</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>06/01/1998</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Abandonado</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Algarrobo</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>Central Hidroeléctrica Loma Alta</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Séptima</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Pehuenche S.A.</t>
         </is>
       </c>
-      <c r="F42" t="n">
+      <c r="F43" t="n">
         <v>60000</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>18/05/1995</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>Algarrobo</t>
         </is>

--- a/data/Algarrobo.xlsx
+++ b/data/Algarrobo.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>INMOBILIARIA E INVERSIONES LAS OLAS SpA</t>
+          <t>Benjamín Andrés Pupkin Rutman</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/11/2022</t>
+          <t>16/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157641322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157626328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Benjamín Andrés Pupkin Rutman</t>
+          <t>INMOBILIARIA E INVERSIONES LAS OLAS SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>09/11/2022</t>
+          <t>14/11/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157626328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157641322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Algarrobo.xlsx
+++ b/data/Algarrobo.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Benjamín Andrés Pupkin Rutman</t>
+          <t>INMOBILIARIA E INVERSIONES LAS OLAS SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/11/2022</t>
+          <t>21/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157626328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157641322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>INMOBILIARIA E INVERSIONES LAS OLAS SpA</t>
+          <t>Benjamín Andrés Pupkin Rutman</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14/11/2022</t>
+          <t>16/11/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157641322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157626328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Algarrobo.xlsx
+++ b/data/Algarrobo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/11/2022</t>
+          <t>25/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157641322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157741069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Benjamín Andrés Pupkin Rutman</t>
+          <t>INMOBILIARIA E INVERSIONES LAS OLAS SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16/11/2022</t>
+          <t>21/11/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157626328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157641322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alghero Solar</t>
+          <t>Proyecto Inmobiliario de Loteo La Ventana en Tunquén</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Alghero Solar SpA</t>
+          <t>Benjamín Andrés Pupkin Rutman</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>33000</v>
+        <v>500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>25/10/2022</t>
+          <t>16/11/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157314767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157626328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
+          <t>Planta Fotovoltaica Alghero Solar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
+          <t>Alghero Solar SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5540</v>
+        <v>33000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/09/2022</t>
+          <t>25/10/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157129130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157314767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>construcción kiosko desarmable de venta de confites</t>
+          <t>Nueva S/E Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>María Susana Jiménez Barranco</t>
+          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>5540</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>30/08/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156861425&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157129130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nueva Subestación Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
+          <t>construcción kiosko desarmable de venta de confites</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
+          <t>María Susana Jiménez Barranco</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5540</v>
+        <v>5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/08/2022</t>
+          <t>30/08/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156705954&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156861425&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Subestación Doble Barra Tap Algarrobo</t>
+          <t>Nueva Subestación Seccionadora Los Poetas y Nueva Línea 1x66 Kv Algarrobo - Los Poetas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Chilquinta Energía S.A</t>
+          <t>COMPAÑIA TRANSMISORA DEL NORTE GRANDE S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6900</v>
+        <v>5540</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142547893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156705954&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Subestación Doble Barra Tap Algarrobo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Chilquinta Energía S.A</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>6900</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142547893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos Planta ECL</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17/02/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Residuos e Insumos Planta ECL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>350</v>
+        <v>2000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>17/02/2010</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4404865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,36 +1144,40 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Estación de transferencia de residuos solidos San Antonio</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Extraccion de residuos Eco-Garbage Ltda</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18/02/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1188,30 +1192,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estación de transferencia de residuos solidos San Antonio</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Extraccion de residuos Eco-Garbage Ltda</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>234</v>
+        <v>2000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>18/02/2008</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2709446&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1251,15 +1251,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1299,15 +1299,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1347,25 +1347,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1403,17 +1403,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1443,25 +1443,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4000</v>
+        <v>200</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1486,30 +1486,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1534,30 +1534,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1587,25 +1587,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1643,17 +1643,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1678,30 +1678,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1726,30 +1726,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Línea de Transmisión de 66 kV y Subestacíón El Totoral (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1774,20 +1774,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Marcelo Hernán Luengo Amar</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>688</v>
+        <v>160</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>07/11/2003</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=195041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Balneario Costa Algarrobo (e-seia)</t>
+          <t>Línea de Transmisión de 66 kV y Subestacíón El Totoral (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1827,25 +1827,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Inversiones Inmobiliarias S.A.</t>
+          <t>Marcelo Hernán Luengo Amar</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>19000</v>
+        <v>688</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30/10/2003</t>
+          <t>07/11/2003</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=181961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=195041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Encauzamiento del Tramo Final del Estero El Yugo, Algarrobo (e-seia)</t>
+          <t>Balneario Costa Algarrobo (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1875,25 +1875,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Inmobiliaria Ampuria Brava Limitada</t>
+          <t>Inversiones Inmobiliarias S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1209</v>
+        <v>19000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>03/09/2003</t>
+          <t>30/10/2003</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=138744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=181961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1927,21 +1927,21 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1241</v>
+        <v>1209</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>14/07/2003</t>
+          <t>03/09/2003</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=138744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Encauzamiento del Tramo Final del Estero El Yugo, Algarrobo (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1966,30 +1966,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Inmobiliaria Ampuria Brava Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1241</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>14/07/2003</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=108301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2019,15 +2019,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2062,20 +2062,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>30/08/2001</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cabañas de Vacaciones</t>
+          <t>Plan Intercomunal de Valparaíso Satélite Borde Costero Sur</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2115,25 +2115,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Lucy Collet Oscar</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo V Región de Valparaíso</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>27/11/2000</t>
+          <t>30/08/2001</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Condominio El Yeco</t>
+          <t>Cabañas de Vacaciones</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2163,25 +2163,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Inmobiliaria Santa Bárbara</t>
+          <t>Lucy Collet Oscar</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>19230</v>
+        <v>460</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>13/09/2000</t>
+          <t>27/11/2000</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Casa de Retiro de la Congregación del Santísimo Redentor</t>
+          <t>Condominio El Yeco</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2211,11 +2211,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Congregación del Santísimo Redentor</t>
+          <t>Inmobiliaria Santa Bárbara</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>410</v>
+        <v>19230</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas Condominio Altos De Mirasol</t>
+          <t>Casa de Retiro de la Congregación del Santísimo Redentor</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2259,25 +2259,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria San Francisco Ltda.</t>
+          <t>Congregación del Santísimo Redentor</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>17/07/2000</t>
+          <t>13/09/2000</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Algarrobo Casablanca</t>
+          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas Condominio Altos De Mirasol</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2307,25 +2307,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Chilquinta Energía S.A.</t>
+          <t>Sociedad Inmobiliaria San Francisco Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>890</v>
+        <v>130</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/05/1998</t>
+          <t>17/07/2000</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Desarrollo Turístico El Eucaliptus</t>
+          <t>Línea de Transmisión Algarrobo Casablanca</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2355,25 +2355,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Inmobiliaria Don Mateo S.A.</t>
+          <t>Chilquinta Energía S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4000</v>
+        <v>890</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>06/01/1998</t>
+          <t>06/05/1998</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2388,43 +2388,91 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>Desarrollo Turístico El Eucaliptus</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Don Mateo S.A.</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>06/01/1998</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Abandonado</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=967&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Algarrobo</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>Central Hidroeléctrica Loma Alta</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Séptima</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Pehuenche S.A.</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="F44" t="n">
         <v>60000</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>18/05/1995</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>Algarrobo</t>
         </is>

--- a/data/Algarrobo.xlsx
+++ b/data/Algarrobo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/11/2022</t>
+          <t>02/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Algarrobo.xlsx
+++ b/data/Algarrobo.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Algarrobo.xlsx
+++ b/data/Algarrobo.xlsx
@@ -2229,7 +2229,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">

--- a/data/Algarrobo.xlsx
+++ b/data/Algarrobo.xlsx
@@ -2229,7 +2229,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">

--- a/data/Algarrobo.xlsx
+++ b/data/Algarrobo.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2478,6 +2478,50 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>PRUEBA</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Empresa Prueba de Ingreso Proyecto</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Eliminados</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129683015&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Algarrobo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Algarrobo.xlsx
+++ b/data/Algarrobo.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
